--- a/first_process/data_processed_describe.xlsx
+++ b/first_process/data_processed_describe.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AB9"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -521,50 +521,45 @@
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Nio</t>
+          <t>Be</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>Be</t>
+          <t>Hf</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Hf</t>
+          <t>Ta</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Ta</t>
+          <t>Y</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>Y</t>
+          <t>Pd</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Pd</t>
+          <t>Pt</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Pt</t>
+          <t>P</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>P</t>
+          <t>Sc</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>Sc</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>V</t>
         </is>
@@ -654,9 +649,6 @@
       <c r="AA2" t="n">
         <v>143</v>
       </c>
-      <c r="AB2" t="n">
-        <v>143</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -698,7 +690,7 @@
         <v>23.67544755244755</v>
       </c>
       <c r="M3" t="n">
-        <v>5.457930069930069</v>
+        <v>5.594993006993007</v>
       </c>
       <c r="N3" t="n">
         <v>0.02797202797202797</v>
@@ -716,19 +708,19 @@
         <v>1.557867132867133</v>
       </c>
       <c r="S3" t="n">
-        <v>0.137062937062937</v>
+        <v>1.340559440559441</v>
       </c>
       <c r="T3" t="n">
-        <v>1.340559440559441</v>
+        <v>1.404895104895105</v>
       </c>
       <c r="U3" t="n">
-        <v>1.404895104895105</v>
+        <v>0.06293706293706294</v>
       </c>
       <c r="V3" t="n">
-        <v>0.06293706293706294</v>
+        <v>0.1188811188811189</v>
       </c>
       <c r="W3" t="n">
-        <v>0.1188811188811189</v>
+        <v>0.1398601398601399</v>
       </c>
       <c r="X3" t="n">
         <v>0.1398601398601399</v>
@@ -737,12 +729,9 @@
         <v>0.1398601398601399</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.1398601398601399</v>
+        <v>0.06993006993006994</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.06993006993006994</v>
-      </c>
-      <c r="AB3" t="n">
         <v>0.01398601398601399</v>
       </c>
     </row>
@@ -786,7 +775,7 @@
         <v>11.16345952681054</v>
       </c>
       <c r="M4" t="n">
-        <v>5.792917970659831</v>
+        <v>5.893864266583386</v>
       </c>
       <c r="N4" t="n">
         <v>0.3344968040028352</v>
@@ -804,19 +793,19 @@
         <v>3.4055875348571</v>
       </c>
       <c r="S4" t="n">
-        <v>1.639034339613896</v>
+        <v>4.823143118753285</v>
       </c>
       <c r="T4" t="n">
-        <v>4.823143118753285</v>
+        <v>4.542728730609551</v>
       </c>
       <c r="U4" t="n">
-        <v>4.542728730609551</v>
+        <v>0.492432639517055</v>
       </c>
       <c r="V4" t="n">
-        <v>0.492432639517055</v>
+        <v>0.6659686420895699</v>
       </c>
       <c r="W4" t="n">
-        <v>0.6659686420895699</v>
+        <v>1.672484020014184</v>
       </c>
       <c r="X4" t="n">
         <v>1.672484020014184</v>
@@ -825,12 +814,9 @@
         <v>1.672484020014184</v>
       </c>
       <c r="Z4" t="n">
-        <v>1.672484020014184</v>
+        <v>0.4542498792755221</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.4542498792755221</v>
-      </c>
-      <c r="AB4" t="n">
         <v>0.1672484020014181</v>
       </c>
     </row>
@@ -918,9 +904,6 @@
       <c r="AA5" t="n">
         <v>0</v>
       </c>
-      <c r="AB5" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -1006,9 +989,6 @@
       <c r="AA6" t="n">
         <v>0</v>
       </c>
-      <c r="AB6" t="n">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -1050,7 +1030,7 @@
         <v>22.1088</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>5.3</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1092,9 +1072,6 @@
         <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB7" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1138,7 +1115,7 @@
         <v>28.5</v>
       </c>
       <c r="M8" t="n">
-        <v>9.955</v>
+        <v>10</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1180,9 +1157,6 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1244,19 +1218,19 @@
         <v>17.5</v>
       </c>
       <c r="S9" t="n">
-        <v>19.6</v>
+        <v>25</v>
       </c>
       <c r="T9" t="n">
         <v>25</v>
       </c>
       <c r="U9" t="n">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="V9" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="W9" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X9" t="n">
         <v>20</v>
@@ -1265,12 +1239,9 @@
         <v>20</v>
       </c>
       <c r="Z9" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="AA9" t="n">
-        <v>4</v>
-      </c>
-      <c r="AB9" t="n">
         <v>2</v>
       </c>
     </row>
